--- a/Income/HBAN_inc.xlsx
+++ b/Income/HBAN_inc.xlsx
@@ -1526,16 +1526,16 @@
         <v>1.0557</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1.0612</v>
+        <v>1.0049</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>0.988</v>
+        <v>0.9384</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0.932</v>
+        <v>0.8878</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.8635</v>
+        <v>0.8253</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0.8268</v>
@@ -1780,16 +1780,16 @@
         <v>0.2131</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.2173</v>
+        <v>0.2057</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.2219</v>
+        <v>0.2108</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.2583</v>
+        <v>0.246</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.3069</v>
+        <v>0.2934</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.2966</v>
@@ -1907,16 +1907,16 @@
         <v>0.1572</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.1646</v>
+        <v>0.1558</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.1718</v>
+        <v>0.1632</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.2049</v>
+        <v>0.1951</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.2474</v>
+        <v>0.2364</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.2393</v>
@@ -2028,22 +2028,22 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.0</v>
+        <v>0.2282</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.3729</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.4464</v>
+        <v>0.4624</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.2678</v>
+        <v>0.2919</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.2493</v>
+        <v>0.273</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.2368</v>
+        <v>0.2594</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.2386</v>
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1.2787</v>
+        <v>1.2789</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.8033</v>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1.2787</v>
+        <v>1.2789</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.8033</v>
@@ -2917,22 +2917,22 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.0</v>
+        <v>0.2546</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0.399</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0.4704</v>
+        <v>0.4851</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>0.29</v>
+        <v>0.313</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0.268</v>
+        <v>0.2908</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>0.2566</v>
+        <v>0.2783</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>0.2616</v>
